--- a/Lampiran/Data Embung/Pengujian Manual Metode VIKOR.xlsx
+++ b/Lampiran/Data Embung/Pengujian Manual Metode VIKOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Lampiran\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CB8E5-D04B-41AA-BBA8-017AFFD4A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A116DF4-998A-41A1-951D-9D1D7D0EF450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D1C17AB8-9C50-4E78-80E4-0DABA078EEC9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="98">
   <si>
     <t>K1</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Alt mluweh stabil di rangking 1 = Kondisi 2 terpenuhi</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,6 +675,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3416,7 +3422,7 @@
   <dimension ref="A2:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC40" sqref="AC40"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,6 +3876,9 @@
       <c r="I12" s="35" t="s">
         <v>25</v>
       </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
       <c r="N12" s="7">
         <f>MIN(N3:N10)</f>
         <v>9.5500000000000002E-2</v>
@@ -3922,6 +3931,10 @@
       </c>
       <c r="I13" s="36">
         <v>0.10242</v>
+      </c>
+      <c r="J13">
+        <f>SUM(C13:I13)</f>
+        <v>1</v>
       </c>
       <c r="P13" s="8"/>
       <c r="S13" s="10" t="s">
@@ -4422,25 +4435,27 @@
         <v>1</v>
       </c>
       <c r="N24" s="18"/>
-      <c r="V24" s="10">
-        <v>1</v>
-      </c>
-      <c r="W24" s="10" t="s">
+      <c r="V24" s="42">
+        <v>1</v>
+      </c>
+      <c r="W24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="X24" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="10" t="s">
+      <c r="X24" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AA24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AA24" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AD24" s="10">
+      <c r="AD24" s="42">
         <v>0</v>
       </c>
     </row>
